--- a/temp/export/export_data.xlsx
+++ b/temp/export/export_data.xlsx
@@ -519,7 +519,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>@@M98_FaZa</t>
+          <t>@M98_FaZa</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>@@tankist613</t>
+          <t>@tankist613</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>@nan</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>@@c0ral0vii</t>
+          <t>@c0ral0vii</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/temp/export/export_data.xlsx
+++ b/temp/export/export_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,246 +483,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>KIT400848944</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>11/18/2024</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11/19/2024</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>11/20/2024</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>+7 959 502 9416</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>@M98_FaZa</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Фаза</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>84@zov.icu</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Password1236</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>341525</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>KIT400864544</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>11/18/2024</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11/19/2024</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>11/20/2024</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>+7 904 902 4696</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>@tankist613</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Alex210949 Alex210949</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>84@zov.icu</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Password1237</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>341526</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>KIT400594583</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>11/18/2024</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11/19/2024</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>11/20/2024</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>+nan</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Илья .</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>84@zov.icu</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Password1238</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>341527</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>11/28/2024</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11/29/2024</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>11/30/2024</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>+7 904 902 4696</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>@c0ral0vii</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Илья .</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>84@zov.icu</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Password1238</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>341527</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/temp/export/export_data.xlsx
+++ b/temp/export/export_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,62 +424,285 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>serial number</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>serial number</t>
+          <t>activated date</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>activated date</t>
+          <t>pay_day</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>pay_day</t>
+          <t>pre-pay day</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>pre-pay day</t>
+          <t>on pause</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>on pause</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>phone</t>
+          <t>telegram username</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>telegram username</t>
+          <t>username</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>username</t>
+          <t>email</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>password</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>password</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
           <t>pay_list</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>KIT400848944</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>11/18/2024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>11/19/2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11/20/2024</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>+7 959 502 9416</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>@M98_FaZa</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Фаза</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>84@zov.icu</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Password1236</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>341525</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>KIT400864544</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>11/18/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>11/19/2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11/20/2024</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>+7 904 902 4696</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>@tankist613</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Alex210949 Alex210949</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>84@zov.icu</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Password1237</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>341526</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>KIT400594583</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>11/18/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>11/19/2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11/20/2024</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>+nan</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Илья .</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>84@zov.icu</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Password1238</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>341527</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>KIT400594582131234</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>11/18/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>11/19/2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11/20/2024</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>+32142134213</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>asdsa</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Илья .</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>84@zov.icu</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Password1238</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>341527</t>
         </is>
       </c>
     </row>

--- a/temp/export/export_data.xlsx
+++ b/temp/export/export_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,7 +439,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>pre-pay day</t>
+          <t>invoice_day</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -475,6 +475,11 @@
       <c r="K1" t="inlineStr">
         <is>
           <t>pay_list</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>comment</t>
         </is>
       </c>
     </row>
@@ -486,17 +491,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11/18/2024</t>
+          <t>18.12.2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11/19/2024</t>
+          <t>18.12.2024</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11/20/2024</t>
+          <t>16.12.2024</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -532,28 +537,33 @@
       <c r="K2" t="inlineStr">
         <is>
           <t>341525</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>KIT400864544</t>
+          <t>KIT400594582131234</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11/18/2024</t>
+          <t>18.12.2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11/19/2024</t>
+          <t>18.12.2024</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11/20/2024</t>
+          <t>15.12.2024</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -563,17 +573,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>+7 904 902 4696</t>
+          <t>+32142134213</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>@tankist613</t>
+          <t>asdsa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Alex210949 Alex210949</t>
+          <t>Илья .</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -583,34 +593,39 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Password1237</t>
+          <t>Password1238</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>341526</t>
+          <t>341527</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>32</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>KIT400594583</t>
+          <t>KIT400864544</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11/18/2024</t>
+          <t>18.12.2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11/19/2024</t>
+          <t>18.12.2024</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11/20/2024</t>
+          <t>17.12.2024</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -620,17 +635,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>+nan</t>
+          <t>+7 904 902 4696</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>@tankist613</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Илья .</t>
+          <t>Alex210949 Alex210949</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -640,34 +655,39 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Password1238</t>
+          <t>Password1237</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>341527</t>
+          <t>341526</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>KIT400594582131234</t>
+          <t>KIT400594583</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11/18/2024</t>
+          <t>18.12.2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11/19/2024</t>
+          <t>18.12.2024</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11/20/2024</t>
+          <t>13.12.2024</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -677,32 +697,99 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>+nan</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Илья .</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>84@zov.icu</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Password1238</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>341527</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>KIT400594582131234123421</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>18.12.2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>18.12.2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.01.2024</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>+32142134213</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>asdsa</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Илья .</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>84@zov.icu</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>Password1238</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>341527</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>32</t>
         </is>
       </c>
     </row>

--- a/temp/export/export_data.xlsx
+++ b/temp/export/export_data.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.12.2024</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -548,7 +548,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>KIT400594582131234</t>
+          <t>KIT400864544</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.12.2024</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -573,17 +573,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>+32142134213</t>
+          <t>+7 904 902 4696</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>asdsa</t>
+          <t>@tankist613</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Илья .</t>
+          <t>Alex210949 Alex210949</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -593,24 +593,24 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Password1238</t>
+          <t>Password1237</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>341527</t>
+          <t>341526</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>KIT400864544</t>
+          <t>KIT400594582131234123421</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.12.2024</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -635,17 +635,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>+7 904 902 4696</t>
+          <t>+32142134213</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>@tankist613</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Alex210949 Alex210949</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -655,17 +655,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Password1237</t>
+          <t>Password1238</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>341526</t>
+          <t>341527</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13.12.2024</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -734,7 +734,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>KIT400594582131234123421</t>
+          <t>KIT400594582131234</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.01.2024</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,12 +764,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>asdsa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Илья .</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/temp/export/export_data.xlsx
+++ b/temp/export/export_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1145"/>
+  <dimension ref="A1:L1147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71412,6 +71412,130 @@
         </is>
       </c>
     </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>2134213</t>
+        </is>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1146" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1146" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E1146" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F1146" t="inlineStr">
+        <is>
+          <t>+2134512</t>
+        </is>
+      </c>
+      <c r="G1146" t="inlineStr">
+        <is>
+          <t>5123</t>
+        </is>
+      </c>
+      <c r="H1146" t="inlineStr">
+        <is>
+          <t>215123</t>
+        </is>
+      </c>
+      <c r="I1146" t="inlineStr">
+        <is>
+          <t>3214123</t>
+        </is>
+      </c>
+      <c r="J1146" t="inlineStr">
+        <is>
+          <t>42134124</t>
+        </is>
+      </c>
+      <c r="K1146" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="L1146" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>KIT303033959</t>
+        </is>
+      </c>
+      <c r="B1147" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1147" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1147" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E1147" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F1147" t="inlineStr">
+        <is>
+          <t>+-</t>
+        </is>
+      </c>
+      <c r="G1147" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H1147" t="inlineStr">
+        <is>
+          <t>FpvLis</t>
+        </is>
+      </c>
+      <c r="I1147" t="inlineStr">
+        <is>
+          <t>5@catish.shop</t>
+        </is>
+      </c>
+      <c r="J1147" t="inlineStr">
+        <is>
+          <t>Password1234</t>
+        </is>
+      </c>
+      <c r="K1147" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="L1147" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
